--- a/classification/droptc/sentence/drone-sbert/freeze/52680723/prediction.xlsx
+++ b/classification/droptc/sentence/drone-sbert/freeze/52680723/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9527113437652588</v>
+        <v>0.9998979568481445</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9837718605995178</v>
+        <v>0.999863862991333</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.983558714389801</v>
+        <v>0.9998930692672729</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8895241618156433</v>
+        <v>0.9995468258857727</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9831022620201111</v>
+        <v>0.9998847246170044</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9823260903358459</v>
+        <v>0.999894380569458</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9822490215301514</v>
+        <v>0.9999127388000488</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.615586519241333</v>
+        <v>0.9998953342437744</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9807120561599731</v>
+        <v>0.9999127388000488</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9841470718383789</v>
+        <v>0.9999097585678101</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9842429161071777</v>
+        <v>0.9999200105667114</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9601954221725464</v>
+        <v>0.9996217489242554</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.983814001083374</v>
+        <v>0.9999058246612549</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9854745864868164</v>
+        <v>0.9998979568481445</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9524668455123901</v>
+        <v>0.9998811483383179</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.982286274433136</v>
+        <v>0.9998840093612671</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7809575796127319</v>
+        <v>0.9977268576622009</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9832726716995239</v>
+        <v>0.9999035596847534</v>
       </c>
     </row>
     <row r="20">
@@ -982,19 +982,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9483164548873901</v>
+        <v>0.9999192953109741</v>
       </c>
     </row>
     <row r="21">
@@ -1010,19 +1010,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8607412576675415</v>
+        <v>0.9998924732208252</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9843090772628784</v>
+        <v>0.9999059438705444</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9360618591308594</v>
+        <v>0.9999017715454102</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9849367737770081</v>
+        <v>0.9999066591262817</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9497113823890686</v>
+        <v>0.9995201826095581</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2601250112056732</v>
+        <v>0.9932061433792114</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9839124083518982</v>
+        <v>0.9999017715454102</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9839869737625122</v>
+        <v>0.999863862991333</v>
       </c>
     </row>
     <row r="29">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8026037216186523</v>
+        <v>0.999895453453064</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9822928309440613</v>
+        <v>0.9998842477798462</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.982300877571106</v>
+        <v>0.9998646974563599</v>
       </c>
     </row>
     <row r="32">
@@ -1318,19 +1318,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.943549633026123</v>
+        <v>0.9998958110809326</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.95768803358078</v>
+        <v>0.9996248483657837</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3061758279800415</v>
+        <v>0.9996479749679565</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9821823239326477</v>
+        <v>0.9995229244232178</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9399598836898804</v>
+        <v>0.9998948574066162</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9849808216094971</v>
+        <v>0.9995793700218201</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9849993586540222</v>
+        <v>0.9999135732650757</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9807412028312683</v>
+        <v>0.9981241822242737</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7863959074020386</v>
+        <v>0.9996281862258911</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9575203657150269</v>
+        <v>0.9999133348464966</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9837840795516968</v>
+        <v>0.7552840709686279</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9848666787147522</v>
+        <v>0.9995656609535217</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.983278214931488</v>
+        <v>0.9994183778762817</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9745280742645264</v>
+        <v>0.9996819496154785</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8600736856460571</v>
+        <v>0.9995892643928528</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9699015617370605</v>
+        <v>0.930180549621582</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.982417106628418</v>
+        <v>0.9995539784431458</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9822909832000732</v>
+        <v>0.9999208450317383</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9853445887565613</v>
+        <v>0.9993773102760315</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9823260903358459</v>
+        <v>0.999125063419342</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9824054837226868</v>
+        <v>0.9998644590377808</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8538459539413452</v>
+        <v>0.9993773102760315</v>
       </c>
     </row>
     <row r="54">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9052078127861023</v>
+        <v>0.9993809461593628</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8588216304779053</v>
+        <v>0.9998946189880371</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9823681712150574</v>
+        <v>0.999915599822998</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9825265407562256</v>
+        <v>0.9999194145202637</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6019356846809387</v>
+        <v>0.9995394945144653</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9807347655296326</v>
+        <v>0.999920129776001</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9553303718566895</v>
+        <v>0.9999098777770996</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9822684526443481</v>
+        <v>0.9999138116836548</v>
       </c>
     </row>
     <row r="62">
@@ -2158,19 +2158,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9308011531829834</v>
+        <v>0.9999102354049683</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9807412028312683</v>
+        <v>0.9994277358055115</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9545493125915527</v>
+        <v>0.9969655871391296</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9841158986091614</v>
+        <v>0.9995298385620117</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9357955455780029</v>
+        <v>0.9995298385620117</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.93952876329422</v>
+        <v>0.9994351267814636</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9839223623275757</v>
+        <v>0.9995298385620117</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9577380418777466</v>
+        <v>0.9996077418327332</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.984904408454895</v>
+        <v>0.9998939037322998</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9409757852554321</v>
+        <v>0.9994925260543823</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8600736856460571</v>
+        <v>0.999825656414032</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9851797819137573</v>
+        <v>0.9995855689048767</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9807019829750061</v>
+        <v>0.9999074935913086</v>
       </c>
     </row>
     <row r="75">
@@ -2527,14 +2527,14 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9420691132545471</v>
+        <v>0.9998825788497925</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9842461347579956</v>
+        <v>0.9995855689048767</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9842544794082642</v>
+        <v>0.999863862991333</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9778712391853333</v>
+        <v>0.9995855689048767</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9807412028312683</v>
+        <v>0.9999021291732788</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9432666301727295</v>
+        <v>0.9995757937431335</v>
       </c>
     </row>
     <row r="81">
@@ -2690,19 +2690,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E81" t="b">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9301572442054749</v>
+        <v>0.9998639822006226</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9850600361824036</v>
+        <v>0.9995757937431335</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.977846622467041</v>
+        <v>0.9998642206192017</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.984062671661377</v>
+        <v>0.9998642206192017</v>
       </c>
     </row>
     <row r="85">
@@ -2807,14 +2807,14 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3749288320541382</v>
+        <v>0.9999209642410278</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9497113823890686</v>
+        <v>0.9996028542518616</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.4085804522037506</v>
+        <v>0.9999003410339355</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9809407591819763</v>
+        <v>0.9995729327201843</v>
       </c>
     </row>
     <row r="89">
@@ -2919,14 +2919,14 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.628082811832428</v>
+        <v>0.999863862991333</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9832277297973633</v>
+        <v>0.9999053478240967</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9838169813156128</v>
+        <v>0.9999053478240967</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.984230101108551</v>
+        <v>0.9999055862426758</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9822220802307129</v>
+        <v>0.9999053478240967</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.985438346862793</v>
+        <v>0.9999051094055176</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9396045207977295</v>
+        <v>0.9999051094055176</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9807412028312683</v>
+        <v>0.9999192953109741</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.792657732963562</v>
+        <v>0.9982274174690247</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9807412028312683</v>
+        <v>0.9999179840087891</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9366538524627686</v>
+        <v>0.9997327923774719</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9806955456733704</v>
+        <v>0.9998949766159058</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9854700565338135</v>
+        <v>0.9999003410339355</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8588216304779053</v>
+        <v>0.9954949617385864</v>
       </c>
     </row>
     <row r="103">
@@ -3306,19 +3306,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E103" t="b">
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9848661422729492</v>
+        <v>0.9995397329330444</v>
       </c>
     </row>
     <row r="104">
@@ -3334,19 +3334,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E104" t="b">
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.8395038843154907</v>
+        <v>0.999883770942688</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9847052097320557</v>
+        <v>0.999646782875061</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9855740666389465</v>
+        <v>0.9998939037322998</v>
       </c>
     </row>
     <row r="107">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3427,10 +3427,10 @@
         </is>
       </c>
       <c r="E107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8891823887825012</v>
+        <v>0.999580442905426</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.6431360244750977</v>
+        <v>0.9996079802513123</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9842685461044312</v>
+        <v>0.9999028444290161</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E110" t="b">
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9493562579154968</v>
+        <v>0.999863862991333</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6085107326507568</v>
+        <v>0.9996265172958374</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9847299456596375</v>
+        <v>0.999550998210907</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.7904525399208069</v>
+        <v>0.9996371269226074</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9856773614883423</v>
+        <v>0.999910831451416</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9822684526443481</v>
+        <v>0.9996359348297119</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9807412028312683</v>
+        <v>0.9998627901077271</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9779605269432068</v>
+        <v>0.9998815059661865</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9846886396408081</v>
+        <v>0.9958508014678955</v>
       </c>
     </row>
     <row r="119">
@@ -3759,14 +3759,14 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9831031560897827</v>
+        <v>0.7379809617996216</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.984630286693573</v>
+        <v>0.999863862991333</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9839005470275879</v>
+        <v>0.9996142387390137</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9832420349121094</v>
+        <v>0.9999189376831055</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9806898236274719</v>
+        <v>0.9996142387390137</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.980180025100708</v>
+        <v>0.9999189376831055</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9299539923667908</v>
+        <v>0.9996142387390137</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.98334139585495</v>
+        <v>0.9999184608459473</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.5682376623153687</v>
+        <v>0.9965204000473022</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.864021897315979</v>
+        <v>0.999863862991333</v>
       </c>
     </row>
     <row r="129">
@@ -4039,14 +4039,14 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9839510917663574</v>
+        <v>0.9995893836021423</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6502847075462341</v>
+        <v>0.995736837387085</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9807412028312683</v>
+        <v>0.999883770942688</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9833294153213501</v>
+        <v>0.9973233342170715</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9529656767845154</v>
+        <v>0.9998824596405029</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9360618591308594</v>
+        <v>0.9999085664749146</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9838035106658936</v>
+        <v>0.9998953342437744</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9855895638465881</v>
+        <v>0.9998573064804077</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.6009361147880554</v>
+        <v>0.9998828172683716</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9838098287582397</v>
+        <v>0.9998816251754761</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9854700565338135</v>
+        <v>0.9998834133148193</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9443893432617188</v>
+        <v>0.9998663663864136</v>
       </c>
     </row>
     <row r="141">
@@ -4375,14 +4375,14 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9850202798843384</v>
+        <v>0.9709474444389343</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9856463074684143</v>
+        <v>0.999863862991333</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9823932647705078</v>
+        <v>0.9995244741439819</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9808140993118286</v>
+        <v>0.9999098777770996</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9840563535690308</v>
+        <v>0.9995244741439819</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9821845889091492</v>
+        <v>0.9998632669448853</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9361911416053772</v>
+        <v>0.9996077418327332</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9857078194618225</v>
+        <v>0.9999009370803833</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9831928014755249</v>
+        <v>0.9995602965354919</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9397037029266357</v>
+        <v>0.9993515610694885</v>
       </c>
     </row>
     <row r="151">
@@ -4650,19 +4650,19 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E151" t="b">
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.7833306193351746</v>
+        <v>0.999863862991333</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9427093863487244</v>
+        <v>0.9973663687705994</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9849367737770081</v>
+        <v>0.9999167919158936</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9855694174766541</v>
+        <v>0.9996335506439209</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9844286441802979</v>
+        <v>0.9999078512191772</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9832578301429749</v>
+        <v>0.9996281862258911</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9432666301727295</v>
+        <v>0.9999109506607056</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9399598836898804</v>
+        <v>0.9996304512023926</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9807412028312683</v>
+        <v>0.9999129772186279</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9823260903358459</v>
+        <v>0.9995843768119812</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9218999147415161</v>
+        <v>0.9999014139175415</v>
       </c>
     </row>
     <row r="162">
@@ -4963,14 +4963,14 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E162" t="b">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9358322024345398</v>
+        <v>0.9622034430503845</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9846192002296448</v>
+        <v>0.9998821020126343</v>
       </c>
     </row>
     <row r="164">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="E164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9433955550193787</v>
+        <v>0.9995229244232178</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9833096861839294</v>
+        <v>0.9999185800552368</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9839140176773071</v>
+        <v>0.9995623230934143</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9855138063430786</v>
+        <v>0.9994935989379883</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9824230670928955</v>
+        <v>0.9996299743652344</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9852824211120605</v>
+        <v>0.999863862991333</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9364692568778992</v>
+        <v>0.9994935989379883</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9839412569999695</v>
+        <v>0.9996089339256287</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9396040439605713</v>
+        <v>0.999863862991333</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9832059741020203</v>
+        <v>0.9998835325241089</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9842760562896729</v>
+        <v>0.999882698059082</v>
       </c>
     </row>
     <row r="175">
@@ -5322,19 +5322,19 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E175" t="b">
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.792233407497406</v>
+        <v>0.9998835325241089</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9832984805107117</v>
+        <v>0.9998835325241089</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9847868084907532</v>
+        <v>0.999882698059082</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9822997450828552</v>
+        <v>0.9999017715454102</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9807412028312683</v>
+        <v>0.9998266100883484</v>
       </c>
     </row>
     <row r="180">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5471,10 +5471,10 @@
         </is>
       </c>
       <c r="E180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9844911694526672</v>
+        <v>0.9998841285705566</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9844738245010376</v>
+        <v>0.9999028444290161</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9847676157951355</v>
+        <v>0.9998935461044312</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9399598836898804</v>
+        <v>0.9996165037155151</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.982267439365387</v>
+        <v>0.9999116659164429</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9807120561599731</v>
+        <v>0.9999105930328369</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9834122657775879</v>
+        <v>0.9999122619628906</v>
       </c>
     </row>
     <row r="187">
@@ -5658,19 +5658,19 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9562292098999023</v>
+        <v>0.9999122619628906</v>
       </c>
     </row>
     <row r="188">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5695,10 +5695,10 @@
         </is>
       </c>
       <c r="E188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.925467312335968</v>
+        <v>0.9999009370803833</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9842060804367065</v>
+        <v>0.9999043941497803</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9430658221244812</v>
+        <v>0.9999042749404907</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.7921019196510315</v>
+        <v>0.9984588623046875</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.8600736856460571</v>
+        <v>0.9998948574066162</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9849309921264648</v>
+        <v>0.9998852014541626</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9806157946586609</v>
+        <v>0.9995602965354919</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9361911416053772</v>
+        <v>0.9996426105499268</v>
       </c>
     </row>
     <row r="196">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9299414157867432</v>
+        <v>0.9999126195907593</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9843431711196899</v>
+        <v>0.9999127388000488</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9419208765029907</v>
+        <v>0.9999141693115234</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9396040439605713</v>
+        <v>0.9999008178710938</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9831869602203369</v>
+        <v>0.9991331696510315</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9848380088806152</v>
+        <v>0.9999005794525146</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9360618591308594</v>
+        <v>0.9999033212661743</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9854632616043091</v>
+        <v>0.9998829364776611</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9842230677604675</v>
+        <v>0.9994805455207825</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9821277856826782</v>
+        <v>0.9999169111251831</v>
       </c>
     </row>
     <row r="206">
@@ -6195,14 +6195,14 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.7813276648521423</v>
+        <v>0.9998821020126343</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9807044863700867</v>
+        <v>0.9984127283096313</v>
       </c>
     </row>
     <row r="208">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E208" t="b">
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9375233054161072</v>
+        <v>0.9998273849487305</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.3521265983581543</v>
+        <v>0.9932312965393066</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9823377132415771</v>
+        <v>0.9998824596405029</v>
       </c>
     </row>
   </sheetData>
